--- a/hz-back/src/main/resources/excel/rpt.xlsx
+++ b/hz-back/src/main/resources/excel/rpt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947F4115-BED3-4910-9330-685728E1068E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>客户代码</t>
   </si>
@@ -627,9 +628,6 @@
     <t>CUST_MGR</t>
   </si>
   <si>
-    <t>MAIN_BR_ID</t>
-  </si>
-  <si>
     <t>COM_CLL_TYPE</t>
   </si>
   <si>
@@ -784,14 +782,42 @@
   </si>
   <si>
     <t>$CUS_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购房合同约定交房日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出证状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_MMHTJYRQ_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_FCZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_FCZ_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_BR_NAME2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,11 +866,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -886,7 +920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -918,9 +952,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,6 +1004,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1127,16 +1197,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DY2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:EB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="BZ2" sqref="BZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="78" max="78" width="29.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:129">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1518,10 +1592,19 @@
       <c r="DY1" t="s">
         <v>126</v>
       </c>
+      <c r="DZ1" t="s">
+        <v>255</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>256</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>257</v>
+      </c>
     </row>
-    <row r="2" spans="1:129">
+    <row r="2" spans="1:132" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
         <v>127</v>
@@ -1752,160 +1835,169 @@
         <v>202</v>
       </c>
       <c r="BZ2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA2" t="s">
         <v>203</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>204</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>205</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>206</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>207</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>208</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>209</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>210</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>211</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>212</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" t="s">
         <v>213</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
         <v>214</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
         <v>215</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" t="s">
         <v>216</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
         <v>217</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>218</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" t="s">
         <v>219</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
         <v>220</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CS2" t="s">
         <v>221</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CT2" t="s">
         <v>222</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CU2" t="s">
         <v>223</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CV2" t="s">
         <v>224</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CW2" t="s">
         <v>225</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CX2" t="s">
         <v>226</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CY2" t="s">
         <v>227</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="CZ2" t="s">
         <v>228</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DA2" t="s">
         <v>229</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DB2" t="s">
         <v>230</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DC2" t="s">
         <v>231</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DD2" t="s">
         <v>232</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DE2" t="s">
         <v>233</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DF2" t="s">
         <v>234</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DG2" t="s">
         <v>235</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DH2" t="s">
         <v>236</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DI2" t="s">
         <v>237</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DJ2" t="s">
         <v>238</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DK2" t="s">
         <v>239</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DL2" t="s">
         <v>240</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DM2" t="s">
         <v>241</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DN2" t="s">
         <v>242</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DO2" t="s">
         <v>243</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DP2" t="s">
         <v>244</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DQ2" t="s">
         <v>245</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DR2" t="s">
         <v>246</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DS2" t="s">
         <v>247</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DT2" t="s">
         <v>248</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DU2" t="s">
         <v>249</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DV2" t="s">
         <v>250</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
         <v>251</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DX2" t="s">
         <v>252</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="DY2" t="s">
         <v>253</v>
       </c>
-      <c r="DY2" t="s">
-        <v>254</v>
+      <c r="DZ2" t="s">
+        <v>258</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>259</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1916,12 +2008,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1930,12 +2022,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hz-back/src/main/resources/excel/rpt.xlsx
+++ b/hz-back/src/main/resources/excel/rpt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947F4115-BED3-4910-9330-685728E1068E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2642BB74-0F75-4A19-AAFF-38E459729648}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>客户代码</t>
   </si>
@@ -793,10 +793,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LM_MMHTJYRQ_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,6 +806,126 @@
   </si>
   <si>
     <t>MAIN_BR_NAME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未按时出证情况说明</t>
+  </si>
+  <si>
+    <t>开发商全称</t>
+  </si>
+  <si>
+    <t>楼盘全称</t>
+  </si>
+  <si>
+    <t>LM_REASON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_EXPLAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_DEVELOPER_FULL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_LP_FULL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审贷会决议执行情况（贷后部分）</t>
+  </si>
+  <si>
+    <t>LM_DSHJYZXQK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出证时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="仿宋_GB2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>围</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>兼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="仿宋_GB2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>围</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未按时出证原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM_MAIN_OPT_SCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM_PART_OPT_SCP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +933,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,6 +948,27 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -856,8 +993,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,19 +1341,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EB2"/>
+  <dimension ref="A1:EI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="BZ2" sqref="BZ2"/>
+    <sheetView tabSelected="1" topLeftCell="DR1" workbookViewId="0">
+      <selection activeCell="EG6" sqref="EG6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="78" max="78" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1599,10 +1742,31 @@
         <v>256</v>
       </c>
       <c r="EB1" t="s">
-        <v>257</v>
+        <v>270</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:132" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139">
       <c r="A2" t="s">
         <v>254</v>
       </c>
@@ -1835,7 +1999,7 @@
         <v>202</v>
       </c>
       <c r="BZ2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="CA2" t="s">
         <v>203</v>
@@ -1991,13 +2155,34 @@
         <v>253</v>
       </c>
       <c r="DZ2" t="s">
+        <v>257</v>
+      </c>
+      <c r="EA2" t="s">
         <v>258</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
         <v>259</v>
       </c>
-      <c r="EB2" t="s">
-        <v>260</v>
+      <c r="EC2" t="s">
+        <v>264</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>265</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>266</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>267</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>269</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>274</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2198,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2027,7 +2212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hz-back/src/main/resources/excel/rpt.xlsx
+++ b/hz-back/src/main/resources/excel/rpt.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2642BB74-0F75-4A19-AAFF-38E459729648}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B919E33C-C170-48D9-A1CE-94E2C2AEC9DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>客户代码</t>
   </si>
@@ -724,12 +724,6 @@
     <t>REG_STATE_CODE</t>
   </si>
   <si>
-    <t>ASSURE_MEANS2</t>
-  </si>
-  <si>
-    <t>ASSURE_MEANS3</t>
-  </si>
-  <si>
     <t xml:space="preserve">PAY_WAY </t>
   </si>
   <si>
@@ -770,15 +764,6 @@
   </si>
   <si>
     <t>MAIN_PRO_TYPE</t>
-  </si>
-  <si>
-    <t>MAIN_FLAG</t>
-  </si>
-  <si>
-    <t>REGISTER_NO</t>
-  </si>
-  <si>
-    <t>REGISTER_NAME</t>
   </si>
   <si>
     <t>$CUS_ID</t>
@@ -926,6 +911,18 @@
   </si>
   <si>
     <t>COM_PART_OPT_SCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTER_NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1341,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EI2"/>
+  <dimension ref="A1:EG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DR1" workbookViewId="0">
-      <selection activeCell="EG6" sqref="EG6"/>
+    <sheetView tabSelected="1" topLeftCell="DB1" workbookViewId="0">
+      <selection activeCell="DG1" sqref="DG1:DH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1353,7 +1350,7 @@
     <col min="78" max="78" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" ht="15">
+    <row r="1" spans="1:137" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1684,91 +1681,91 @@
       <c r="DF1" t="s">
         <v>109</v>
       </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
       <c r="DI1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DJ1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="DK1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="DL1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="DM1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="DN1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="DO1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="DP1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="DQ1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="DR1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="DS1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="DT1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="DU1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="DV1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="DW1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="DX1" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="DY1" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="DZ1" t="s">
-        <v>255</v>
-      </c>
-      <c r="EA1" t="s">
+        <v>265</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="EB1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="EB1" t="s">
-        <v>270</v>
-      </c>
-      <c r="EC1" s="2" t="s">
-        <v>273</v>
+      <c r="EC1" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:139">
+    <row r="2" spans="1:137">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
         <v>127</v>
@@ -1999,7 +1996,7 @@
         <v>202</v>
       </c>
       <c r="BZ2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="CA2" t="s">
         <v>203</v>
@@ -2140,13 +2137,13 @@
         <v>248</v>
       </c>
       <c r="DU2" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="DV2" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="DW2" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="DX2" t="s">
         <v>252</v>
@@ -2155,34 +2152,28 @@
         <v>253</v>
       </c>
       <c r="DZ2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="EA2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EB2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EC2" t="s">
+        <v>261</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>262</v>
+      </c>
+      <c r="EE2" t="s">
         <v>264</v>
       </c>
-      <c r="ED2" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>266</v>
-      </c>
       <c r="EF2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="EG2" t="s">
-        <v>269</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>274</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
